--- a/biology/Botanique/Château_Golan/Château_Golan.xlsx
+++ b/biology/Botanique/Château_Golan/Château_Golan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Golan</t>
+          <t>Château_Golan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Château Golan est un domaine viticole produisant le cru israélien le plus réputé du pays. La marque n'existe que depuis 1999. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Golan</t>
+          <t>Château_Golan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bordelais : Cabernet Sauvignon, Merlot, Cabernet Franc et Petit Verdot.
 Méditerranéen : Syrah, Grenache, Mourvèdre, Carignan, Petite Syrah, Roussanne, Grenache blanc et Viognier.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Golan</t>
+          <t>Château_Golan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Le terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignes du Château Golan poussent sur un sol basaltique très sec qui lui donne ses particularités, sur les hauteurs du Sud du Golan. Le terroir bénéficie de conditions climatiques excellentes: 550 mm de précipitations annuelles, une température moyenne de janvier de 18 °C, et de juillet de 32 °C.
  Portail de la vigne et du vin   Portail d’Israël                    </t>
